--- a/data/pca/factorExposure/factorExposure_2018-12-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.09307986237581536</v>
+        <v>-0.06086011552309385</v>
       </c>
       <c r="C2">
-        <v>0.02887686361856674</v>
+        <v>0.03003696832059901</v>
       </c>
       <c r="D2">
-        <v>0.06686092394451471</v>
+        <v>0.01802421843713633</v>
       </c>
       <c r="E2">
-        <v>-0.01933043926993702</v>
+        <v>-0.03243494514389243</v>
       </c>
       <c r="F2">
-        <v>-0.1234224454459169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1202655789167782</v>
+      </c>
+      <c r="G2">
+        <v>-0.06313472270516922</v>
+      </c>
+      <c r="H2">
+        <v>0.06102793571983568</v>
+      </c>
+      <c r="I2">
+        <v>0.115171900902065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.1962070102004595</v>
+        <v>-0.1411799449510989</v>
       </c>
       <c r="C3">
-        <v>-0.111369811905124</v>
+        <v>0.09711928461863335</v>
       </c>
       <c r="D3">
-        <v>0.1118090562932345</v>
+        <v>-0.003498003731727645</v>
       </c>
       <c r="E3">
-        <v>0.008883776225117584</v>
+        <v>0.0349438760973055</v>
       </c>
       <c r="F3">
-        <v>-0.3890550447779484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3858549394921874</v>
+      </c>
+      <c r="G3">
+        <v>-0.2767751707118494</v>
+      </c>
+      <c r="H3">
+        <v>0.1128862717022881</v>
+      </c>
+      <c r="I3">
+        <v>0.371274326517475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.08362312667953969</v>
+        <v>-0.06499297719508414</v>
       </c>
       <c r="C4">
-        <v>-0.008614597684491288</v>
+        <v>0.0484426003591386</v>
       </c>
       <c r="D4">
-        <v>0.06792738819058328</v>
+        <v>-0.01528520675820535</v>
       </c>
       <c r="E4">
-        <v>0.03176074298324227</v>
+        <v>-0.03799150109093713</v>
       </c>
       <c r="F4">
-        <v>-0.07547995200775856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07777154262497057</v>
+      </c>
+      <c r="G4">
+        <v>-0.02365108256624573</v>
+      </c>
+      <c r="H4">
+        <v>0.04481335224028548</v>
+      </c>
+      <c r="I4">
+        <v>0.06467654377972144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02700639817724626</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01233632930168139</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.004192200986244406</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.00697451533764712</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.009080248683412208</v>
+      </c>
+      <c r="G6">
+        <v>0.0207309860155714</v>
+      </c>
+      <c r="H6">
+        <v>-0.01593943014812961</v>
+      </c>
+      <c r="I6">
+        <v>0.007555332009428686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03987355352472564</v>
+        <v>-0.0326963754548814</v>
       </c>
       <c r="C7">
-        <v>0.005441595509457442</v>
+        <v>0.01808611767500511</v>
       </c>
       <c r="D7">
-        <v>0.04835123329709509</v>
+        <v>-0.03544980221004154</v>
       </c>
       <c r="E7">
-        <v>-0.004089883085750807</v>
+        <v>-0.02707710446428995</v>
       </c>
       <c r="F7">
-        <v>-0.08182252266937662</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05319059477734293</v>
+      </c>
+      <c r="G7">
+        <v>-0.05052770612344085</v>
+      </c>
+      <c r="H7">
+        <v>0.003442326859612612</v>
+      </c>
+      <c r="I7">
+        <v>0.03841563725057102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04376247906030082</v>
+        <v>-0.02026092539793958</v>
       </c>
       <c r="C8">
-        <v>-0.03038472000085298</v>
+        <v>0.0493914051488139</v>
       </c>
       <c r="D8">
-        <v>0.05264963935659281</v>
+        <v>-0.01186684312868466</v>
       </c>
       <c r="E8">
-        <v>0.02821766848043293</v>
+        <v>-0.01364685429453131</v>
       </c>
       <c r="F8">
-        <v>-0.07025410591569224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07179602990675046</v>
+      </c>
+      <c r="G8">
+        <v>-0.04583467485750457</v>
+      </c>
+      <c r="H8">
+        <v>0.03882293849869133</v>
+      </c>
+      <c r="I8">
+        <v>0.06194922403789059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07017968705819479</v>
+        <v>-0.05491846588814357</v>
       </c>
       <c r="C9">
-        <v>0.001922859133636117</v>
+        <v>0.04047941468359614</v>
       </c>
       <c r="D9">
-        <v>0.06307453496193481</v>
+        <v>-0.01751292657659036</v>
       </c>
       <c r="E9">
-        <v>0.04554261289582327</v>
+        <v>-0.03276043041502798</v>
       </c>
       <c r="F9">
-        <v>-0.06265670461010271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.08036088364650712</v>
+      </c>
+      <c r="G9">
+        <v>-0.01976534468445627</v>
+      </c>
+      <c r="H9">
+        <v>0.04517613072565266</v>
+      </c>
+      <c r="I9">
+        <v>0.04032793974277561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.03720051552290685</v>
+        <v>-0.04749532035043622</v>
       </c>
       <c r="C10">
-        <v>0.1082958128060935</v>
+        <v>-0.1650316704619905</v>
       </c>
       <c r="D10">
-        <v>-0.1148318681919488</v>
+        <v>0.01556601712218972</v>
       </c>
       <c r="E10">
-        <v>-0.04733467285242925</v>
+        <v>0.02951889552647429</v>
       </c>
       <c r="F10">
-        <v>-0.06656861083914467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.05837185364276836</v>
+      </c>
+      <c r="G10">
+        <v>-0.02475599571560244</v>
+      </c>
+      <c r="H10">
+        <v>0.03705836640028976</v>
+      </c>
+      <c r="I10">
+        <v>0.03500731485838221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05269510863564148</v>
+        <v>-0.04457554142160462</v>
       </c>
       <c r="C11">
-        <v>-0.008518097694366478</v>
+        <v>0.03315161241384439</v>
       </c>
       <c r="D11">
-        <v>0.02198514489743327</v>
+        <v>0.005347991458457146</v>
       </c>
       <c r="E11">
-        <v>-0.00504889982866689</v>
+        <v>-0.007174240367999276</v>
       </c>
       <c r="F11">
-        <v>-0.04925625001110071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03829030155307245</v>
+      </c>
+      <c r="G11">
+        <v>0.0003420868066025797</v>
+      </c>
+      <c r="H11">
+        <v>0.01334440224334563</v>
+      </c>
+      <c r="I11">
+        <v>0.03785983076041422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04488103241194386</v>
+        <v>-0.04227016295897582</v>
       </c>
       <c r="C12">
-        <v>-0.011682548888945</v>
+        <v>0.03354072775036054</v>
       </c>
       <c r="D12">
-        <v>0.02438714250218015</v>
+        <v>-0.007300005000098996</v>
       </c>
       <c r="E12">
-        <v>0.01390155959415227</v>
+        <v>-0.009914476772811086</v>
       </c>
       <c r="F12">
-        <v>-0.04030476279427631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01656941675396682</v>
+      </c>
+      <c r="G12">
+        <v>-0.005658418980313368</v>
+      </c>
+      <c r="H12">
+        <v>0.006308514616162508</v>
+      </c>
+      <c r="I12">
+        <v>0.02725942196353008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.05231376188074015</v>
+        <v>-0.03875378288999082</v>
       </c>
       <c r="C13">
-        <v>-0.008947827898753589</v>
+        <v>0.02667707488804406</v>
       </c>
       <c r="D13">
-        <v>0.03477298549306732</v>
+        <v>0.01506012700957412</v>
       </c>
       <c r="E13">
-        <v>-0.02991387025029922</v>
+        <v>-0.006552283138992962</v>
       </c>
       <c r="F13">
-        <v>-0.11363619965394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.09679131471676747</v>
+      </c>
+      <c r="G13">
+        <v>-0.03600994764724055</v>
+      </c>
+      <c r="H13">
+        <v>0.03417185799153658</v>
+      </c>
+      <c r="I13">
+        <v>0.07877328374703829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.02869757351745357</v>
+        <v>-0.02338608607963695</v>
       </c>
       <c r="C14">
-        <v>-5.866751595805594e-05</v>
+        <v>0.02241017586069596</v>
       </c>
       <c r="D14">
-        <v>0.04648679768564838</v>
+        <v>-0.005729497994421714</v>
       </c>
       <c r="E14">
-        <v>0.005623377008806993</v>
+        <v>-0.02730558623209728</v>
       </c>
       <c r="F14">
-        <v>-0.03357575866719509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.0397394235904747</v>
+      </c>
+      <c r="G14">
+        <v>-0.05514010925343057</v>
+      </c>
+      <c r="H14">
+        <v>0.02044972615780109</v>
+      </c>
+      <c r="I14">
+        <v>0.01763999500955852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04343570414515533</v>
+        <v>-0.03834829535013525</v>
       </c>
       <c r="C16">
-        <v>-0.01592919471871314</v>
+        <v>0.03471812362977227</v>
       </c>
       <c r="D16">
-        <v>0.02025274275485261</v>
+        <v>-0.0003955496199263325</v>
       </c>
       <c r="E16">
-        <v>0.0003098457581311332</v>
+        <v>-0.004592444296435709</v>
       </c>
       <c r="F16">
-        <v>-0.03947317039110611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03391278081568008</v>
+      </c>
+      <c r="G16">
+        <v>-0.006178042219961468</v>
+      </c>
+      <c r="H16">
+        <v>0.007810553418282807</v>
+      </c>
+      <c r="I16">
+        <v>0.03815658515365881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06212513527406498</v>
+        <v>-0.04845683421786981</v>
       </c>
       <c r="C19">
-        <v>-0.03231695694657951</v>
+        <v>0.04759527322101774</v>
       </c>
       <c r="D19">
-        <v>0.04179790447976398</v>
+        <v>0.002787983573360347</v>
       </c>
       <c r="E19">
-        <v>-0.001073820678031359</v>
+        <v>-0.01267949945546341</v>
       </c>
       <c r="F19">
-        <v>-0.09891007935047956</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09386712043254052</v>
+      </c>
+      <c r="G19">
+        <v>-0.05147089011745442</v>
+      </c>
+      <c r="H19">
+        <v>0.02683424484376114</v>
+      </c>
+      <c r="I19">
+        <v>0.07747999019451203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.02601306276345711</v>
+        <v>-0.01602896040752551</v>
       </c>
       <c r="C20">
-        <v>-0.006878731206244366</v>
+        <v>0.02680397863592548</v>
       </c>
       <c r="D20">
-        <v>0.05017008286376898</v>
+        <v>-0.004692217312145515</v>
       </c>
       <c r="E20">
-        <v>0.01871664464522263</v>
+        <v>-0.01862533908187728</v>
       </c>
       <c r="F20">
-        <v>-0.07133487667643953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06080788573934894</v>
+      </c>
+      <c r="G20">
+        <v>-0.0661639886134187</v>
+      </c>
+      <c r="H20">
+        <v>0.01526901947048764</v>
+      </c>
+      <c r="I20">
+        <v>0.07011692263180309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.0249631762457116</v>
+        <v>-0.02922200689258187</v>
       </c>
       <c r="C21">
-        <v>-0.02388381064357712</v>
+        <v>0.02428082907350484</v>
       </c>
       <c r="D21">
-        <v>0.02876922399758706</v>
+        <v>-0.01097745384191048</v>
       </c>
       <c r="E21">
-        <v>-0.007859164554498499</v>
+        <v>-0.001150484429998494</v>
       </c>
       <c r="F21">
-        <v>-0.09595427278884364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07351972810832418</v>
+      </c>
+      <c r="G21">
+        <v>-0.008087246421752093</v>
+      </c>
+      <c r="H21">
+        <v>0.05095382429068607</v>
+      </c>
+      <c r="I21">
+        <v>0.008776892826350829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04278846516799849</v>
+        <v>-0.03694693206534586</v>
       </c>
       <c r="C24">
-        <v>-0.0104627882562964</v>
+        <v>0.02992483355864122</v>
       </c>
       <c r="D24">
-        <v>0.02319857939941038</v>
+        <v>-0.0005857980411809846</v>
       </c>
       <c r="E24">
-        <v>0.003584761113087422</v>
+        <v>-0.007046899424701856</v>
       </c>
       <c r="F24">
-        <v>-0.0501797568442108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03655911808715651</v>
+      </c>
+      <c r="G24">
+        <v>-0.002319343050257802</v>
+      </c>
+      <c r="H24">
+        <v>0.008229633100989972</v>
+      </c>
+      <c r="I24">
+        <v>0.04014533236556016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04654650206497622</v>
+        <v>-0.04526374327196261</v>
       </c>
       <c r="C25">
-        <v>-0.007857616450894169</v>
+        <v>0.02724033894802868</v>
       </c>
       <c r="D25">
-        <v>0.02081627210487284</v>
+        <v>0.0007489781032599861</v>
       </c>
       <c r="E25">
-        <v>0.00250191985481967</v>
+        <v>-0.00790490528318627</v>
       </c>
       <c r="F25">
-        <v>-0.0478637401029643</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.045149621430842</v>
+      </c>
+      <c r="G25">
+        <v>0.004829027731546141</v>
+      </c>
+      <c r="H25">
+        <v>0.01310610492770928</v>
+      </c>
+      <c r="I25">
+        <v>0.03472591890918463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02361300987806982</v>
+        <v>-0.01388277901042089</v>
       </c>
       <c r="C26">
-        <v>-0.02109658879503062</v>
+        <v>0.03039839835574757</v>
       </c>
       <c r="D26">
-        <v>0.04163559302793246</v>
+        <v>0.004446483296569638</v>
       </c>
       <c r="E26">
-        <v>-0.01867927825921335</v>
+        <v>-0.000178724172456797</v>
       </c>
       <c r="F26">
-        <v>-0.04292425700588198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04649525969385694</v>
+      </c>
+      <c r="G26">
+        <v>-0.03223761270440683</v>
+      </c>
+      <c r="H26">
+        <v>0.01236108022186255</v>
+      </c>
+      <c r="I26">
+        <v>0.03746432545163636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1065385833506474</v>
+        <v>-0.06240119975149468</v>
       </c>
       <c r="C27">
-        <v>0.01039585004077139</v>
+        <v>0.0213548288724012</v>
       </c>
       <c r="D27">
-        <v>0.04721687617145453</v>
+        <v>-0.003434031190937391</v>
       </c>
       <c r="E27">
-        <v>0.02615457534126681</v>
+        <v>-0.02515664646524612</v>
       </c>
       <c r="F27">
-        <v>-0.06140706759113402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.04876061967218571</v>
+      </c>
+      <c r="G27">
+        <v>-0.03028809311294653</v>
+      </c>
+      <c r="H27">
+        <v>0.02646813169886016</v>
+      </c>
+      <c r="I27">
+        <v>0.02040339144342262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.04470717825910983</v>
+        <v>-0.06532330463115665</v>
       </c>
       <c r="C28">
-        <v>0.1564532011931913</v>
+        <v>-0.2494315996557156</v>
       </c>
       <c r="D28">
-        <v>-0.1924261346144091</v>
+        <v>0.01393248037273634</v>
       </c>
       <c r="E28">
-        <v>-0.05275279098752086</v>
+        <v>0.04337796610341371</v>
       </c>
       <c r="F28">
-        <v>-0.03298542026508888</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03787810256800208</v>
+      </c>
+      <c r="G28">
+        <v>-0.04575837275289697</v>
+      </c>
+      <c r="H28">
+        <v>0.03596973076303866</v>
+      </c>
+      <c r="I28">
+        <v>0.05445198065372761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02831156642313292</v>
+        <v>-0.02257673241734973</v>
       </c>
       <c r="C29">
-        <v>-0.0003936061900446348</v>
+        <v>0.02264203619872943</v>
       </c>
       <c r="D29">
-        <v>0.04613819224452436</v>
+        <v>-0.009246123982253404</v>
       </c>
       <c r="E29">
-        <v>0.01907823328208472</v>
+        <v>-0.02973453896874988</v>
       </c>
       <c r="F29">
-        <v>-0.02870911571920781</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03653196213775139</v>
+      </c>
+      <c r="G29">
+        <v>-0.05443264883121103</v>
+      </c>
+      <c r="H29">
+        <v>0.02556971884457872</v>
+      </c>
+      <c r="I29">
+        <v>0.0007508163818715527</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1020896405651605</v>
+        <v>-0.08405792882058639</v>
       </c>
       <c r="C30">
-        <v>0.01121153063204744</v>
+        <v>0.05195773844576257</v>
       </c>
       <c r="D30">
-        <v>0.05939988419097966</v>
+        <v>0.0386342963852139</v>
       </c>
       <c r="E30">
-        <v>-0.00196741389603173</v>
+        <v>-0.03156686707151223</v>
       </c>
       <c r="F30">
-        <v>-0.1073644874653106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1024622238559352</v>
+      </c>
+      <c r="G30">
+        <v>-0.01008050720254693</v>
+      </c>
+      <c r="H30">
+        <v>-0.00439743396477082</v>
+      </c>
+      <c r="I30">
+        <v>0.02617774318388733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06479523372768038</v>
+        <v>-0.0587382127480334</v>
       </c>
       <c r="C31">
-        <v>-0.001652489072479936</v>
+        <v>0.0260548292277764</v>
       </c>
       <c r="D31">
-        <v>0.04331096012534079</v>
+        <v>0.007924268797187202</v>
       </c>
       <c r="E31">
-        <v>-0.02950589934704687</v>
+        <v>-0.02345145412754575</v>
       </c>
       <c r="F31">
-        <v>0.02344870735599719</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.000702107174232155</v>
+      </c>
+      <c r="G31">
+        <v>-0.04276858594300351</v>
+      </c>
+      <c r="H31">
+        <v>0.0459095030727158</v>
+      </c>
+      <c r="I31">
+        <v>0.01366976590298419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06019713079811326</v>
+        <v>-0.03663769189940017</v>
       </c>
       <c r="C32">
-        <v>-0.01571206088272963</v>
+        <v>0.04247765840462065</v>
       </c>
       <c r="D32">
-        <v>0.05214668265561221</v>
+        <v>-0.01625389446242283</v>
       </c>
       <c r="E32">
-        <v>0.01539612574597555</v>
+        <v>-0.03108831296575029</v>
       </c>
       <c r="F32">
-        <v>-0.1015049325371095</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08262982151174378</v>
+      </c>
+      <c r="G32">
+        <v>-0.03394766518601408</v>
+      </c>
+      <c r="H32">
+        <v>0.03116362988050954</v>
+      </c>
+      <c r="I32">
+        <v>0.06330111697604172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.05716596504687972</v>
+        <v>-0.04893313557580745</v>
       </c>
       <c r="C33">
-        <v>-0.0309146420873996</v>
+        <v>0.05500182956632777</v>
       </c>
       <c r="D33">
-        <v>0.0659315111814279</v>
+        <v>0.01868174928975726</v>
       </c>
       <c r="E33">
-        <v>-0.008568959951533933</v>
+        <v>-0.004004927123154789</v>
       </c>
       <c r="F33">
-        <v>-0.07136587108314366</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07342028443218292</v>
+      </c>
+      <c r="G33">
+        <v>-0.04008999511636775</v>
+      </c>
+      <c r="H33">
+        <v>0.03936540365509904</v>
+      </c>
+      <c r="I33">
+        <v>0.03853467234180601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04467819530019591</v>
+        <v>-0.04005220266027384</v>
       </c>
       <c r="C34">
-        <v>-0.007423867378089455</v>
+        <v>0.03664114677986523</v>
       </c>
       <c r="D34">
-        <v>0.03187483296172661</v>
+        <v>-0.005853425080295598</v>
       </c>
       <c r="E34">
-        <v>0.006006773566816123</v>
+        <v>-0.01678453330179845</v>
       </c>
       <c r="F34">
-        <v>-0.04245554846538123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03746025643073292</v>
+      </c>
+      <c r="G34">
+        <v>-0.001951169580979938</v>
+      </c>
+      <c r="H34">
+        <v>0.009936219219452593</v>
+      </c>
+      <c r="I34">
+        <v>0.03949597762171077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01749342847665986</v>
+        <v>-0.01671001767542466</v>
       </c>
       <c r="C36">
-        <v>0.004355883573895545</v>
+        <v>0.006072738847631268</v>
       </c>
       <c r="D36">
-        <v>0.01761654738528291</v>
+        <v>-0.003166830656722131</v>
       </c>
       <c r="E36">
-        <v>0.004370334872381914</v>
+        <v>-0.01050862994612589</v>
       </c>
       <c r="F36">
-        <v>-0.02485757967426253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02782665582080198</v>
+      </c>
+      <c r="G36">
+        <v>-0.03110457800472576</v>
+      </c>
+      <c r="H36">
+        <v>0.02711852783908614</v>
+      </c>
+      <c r="I36">
+        <v>-0.007909460468712746</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.03189822070763758</v>
+        <v>-0.03022042835309198</v>
       </c>
       <c r="C38">
-        <v>0.001720148526459106</v>
+        <v>0.01395005267238474</v>
       </c>
       <c r="D38">
-        <v>0.01791845961391835</v>
+        <v>-0.003879724655637906</v>
       </c>
       <c r="E38">
-        <v>0.01648473857899406</v>
+        <v>-0.005040620161155284</v>
       </c>
       <c r="F38">
-        <v>-0.02425163616593827</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04788810415887103</v>
+      </c>
+      <c r="G38">
+        <v>-0.01419922492026515</v>
+      </c>
+      <c r="H38">
+        <v>0.03036295022215848</v>
+      </c>
+      <c r="I38">
+        <v>-0.005098475187428571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.06471524542289118</v>
+        <v>-0.05023699640302779</v>
       </c>
       <c r="C39">
-        <v>-0.006150552790187697</v>
+        <v>0.04987690532356218</v>
       </c>
       <c r="D39">
-        <v>0.03533157707645989</v>
+        <v>0.004592343249652703</v>
       </c>
       <c r="E39">
-        <v>-0.01123443531123759</v>
+        <v>-0.01757868341236534</v>
       </c>
       <c r="F39">
-        <v>-0.04255337686489657</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05713175171496069</v>
+      </c>
+      <c r="G39">
+        <v>0.01017998918127906</v>
+      </c>
+      <c r="H39">
+        <v>0.02274231265997936</v>
+      </c>
+      <c r="I39">
+        <v>0.02357047187493579</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.06195049105686834</v>
+        <v>-0.05127287804972432</v>
       </c>
       <c r="C40">
-        <v>0.0107991172349616</v>
+        <v>0.04199178469343225</v>
       </c>
       <c r="D40">
-        <v>0.06534498806261896</v>
+        <v>0.02184290464922618</v>
       </c>
       <c r="E40">
-        <v>-0.03413694170424246</v>
+        <v>-0.02152385107546816</v>
       </c>
       <c r="F40">
-        <v>-0.1076284011450858</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.08843978294215407</v>
+      </c>
+      <c r="G40">
+        <v>-0.03779374017265465</v>
+      </c>
+      <c r="H40">
+        <v>0.03506397234871007</v>
+      </c>
+      <c r="I40">
+        <v>0.1179969313184995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.002636212677148528</v>
+        <v>-0.002246670777158231</v>
       </c>
       <c r="C41">
-        <v>-0.00808818126133219</v>
+        <v>0.009173011988945167</v>
       </c>
       <c r="D41">
-        <v>0.03309389806260472</v>
+        <v>0.001246502876741581</v>
       </c>
       <c r="E41">
-        <v>0.003476022248943497</v>
+        <v>-0.009733188203682444</v>
       </c>
       <c r="F41">
-        <v>0.005267626280401423</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.00980553608021967</v>
+      </c>
+      <c r="G41">
+        <v>-0.04281593450392802</v>
+      </c>
+      <c r="H41">
+        <v>0.04220393035906154</v>
+      </c>
+      <c r="I41">
+        <v>0.002025440825539077</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.223974200142657</v>
+        <v>-0.2088108633832231</v>
       </c>
       <c r="C42">
-        <v>-0.795317688108041</v>
+        <v>0.2452654185226249</v>
       </c>
       <c r="D42">
-        <v>-0.4682679265323186</v>
+        <v>0.02330389654089578</v>
       </c>
       <c r="E42">
-        <v>-0.2178600218501598</v>
+        <v>0.9121025353594783</v>
       </c>
       <c r="F42">
-        <v>0.08161727702125807</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1836436969939984</v>
+      </c>
+      <c r="G42">
+        <v>-0.0004685770597784248</v>
+      </c>
+      <c r="H42">
+        <v>-0.00622489437811886</v>
+      </c>
+      <c r="I42">
+        <v>0.03382979574747549</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.002055188458224405</v>
+        <v>-0.00557124690775517</v>
       </c>
       <c r="C43">
-        <v>-0.01011666610154224</v>
+        <v>0.0117122567810325</v>
       </c>
       <c r="D43">
-        <v>0.03573731975794776</v>
+        <v>0.00374299514198761</v>
       </c>
       <c r="E43">
-        <v>-6.080015043108209e-05</v>
+        <v>-0.00775450311185113</v>
       </c>
       <c r="F43">
-        <v>-0.02291038434655182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02033165558485666</v>
+      </c>
+      <c r="G43">
+        <v>-0.03605170004346977</v>
+      </c>
+      <c r="H43">
+        <v>0.02384906742693555</v>
+      </c>
+      <c r="I43">
+        <v>0.0109802589183337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.03604412455902865</v>
+        <v>-0.02438966986804153</v>
       </c>
       <c r="C44">
-        <v>-0.02050668932423362</v>
+        <v>0.03788658573533212</v>
       </c>
       <c r="D44">
-        <v>0.05859131036478317</v>
+        <v>-0.001096064855596545</v>
       </c>
       <c r="E44">
-        <v>-0.003352778203580859</v>
+        <v>-0.009299242655738092</v>
       </c>
       <c r="F44">
-        <v>-0.1233054910360955</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1207283912451617</v>
+      </c>
+      <c r="G44">
+        <v>-0.08683333473375246</v>
+      </c>
+      <c r="H44">
+        <v>0.06165684911972422</v>
+      </c>
+      <c r="I44">
+        <v>0.05124635302356631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03190296813480552</v>
+        <v>-0.02414049234352801</v>
       </c>
       <c r="C46">
-        <v>-0.008838175084050369</v>
+        <v>0.03653651467433972</v>
       </c>
       <c r="D46">
-        <v>0.047890323064428</v>
+        <v>0.003854242064434037</v>
       </c>
       <c r="E46">
-        <v>0.0005835399270344698</v>
+        <v>-0.02818085711092603</v>
       </c>
       <c r="F46">
-        <v>-0.01994189878399288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04801396228485887</v>
+      </c>
+      <c r="G46">
+        <v>-0.05418441365787994</v>
+      </c>
+      <c r="H46">
+        <v>0.0278412349883233</v>
+      </c>
+      <c r="I46">
+        <v>0.004920251910017454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0911298303867734</v>
+        <v>-0.08587692965158668</v>
       </c>
       <c r="C47">
-        <v>0.003095696104371319</v>
+        <v>0.02803663999491627</v>
       </c>
       <c r="D47">
-        <v>0.04645192462368006</v>
+        <v>0.002609494250894628</v>
       </c>
       <c r="E47">
-        <v>0.006795688741230001</v>
+        <v>-0.02837071054259366</v>
       </c>
       <c r="F47">
-        <v>0.01440211300444571</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01575231085847281</v>
+      </c>
+      <c r="G47">
+        <v>-0.0671786396765449</v>
+      </c>
+      <c r="H47">
+        <v>0.03861201260858096</v>
+      </c>
+      <c r="I47">
+        <v>0.02558894543473368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01815306137265283</v>
+        <v>-0.02039885772518768</v>
       </c>
       <c r="C48">
-        <v>-0.005003239284460762</v>
+        <v>0.01846720634890757</v>
       </c>
       <c r="D48">
-        <v>0.03472412986803781</v>
+        <v>-0.0007287892612761903</v>
       </c>
       <c r="E48">
-        <v>0.00114849246358793</v>
+        <v>-0.01384841178628103</v>
       </c>
       <c r="F48">
-        <v>-0.02954611777596237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02845926795007711</v>
+      </c>
+      <c r="G48">
+        <v>-0.02245910160241492</v>
+      </c>
+      <c r="H48">
+        <v>0.01966877598714658</v>
+      </c>
+      <c r="I48">
+        <v>0.01039398736848396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08762298996189218</v>
+        <v>-0.08354891107781123</v>
       </c>
       <c r="C50">
-        <v>-0.01221341593098089</v>
+        <v>0.04612961616533012</v>
       </c>
       <c r="D50">
-        <v>0.04953190983167369</v>
+        <v>-0.01192992594718675</v>
       </c>
       <c r="E50">
-        <v>-0.00587949708392268</v>
+        <v>-0.02341274423406392</v>
       </c>
       <c r="F50">
-        <v>0.02525711900403503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01114308647918551</v>
+      </c>
+      <c r="G50">
+        <v>-0.04301267860143958</v>
+      </c>
+      <c r="H50">
+        <v>-0.003302411923938694</v>
+      </c>
+      <c r="I50">
+        <v>-0.00958502793213104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05454419266208923</v>
+        <v>-0.03963807453600072</v>
       </c>
       <c r="C51">
-        <v>0.01571302675177287</v>
+        <v>-0.004315035552610285</v>
       </c>
       <c r="D51">
-        <v>0.02158367377583997</v>
+        <v>0.01270340668028001</v>
       </c>
       <c r="E51">
-        <v>-0.03737923241257616</v>
+        <v>-0.01007724019914095</v>
       </c>
       <c r="F51">
-        <v>-0.05598467847492814</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.08200318495555628</v>
+      </c>
+      <c r="G51">
+        <v>-0.06420483598485464</v>
+      </c>
+      <c r="H51">
+        <v>0.05877051096039949</v>
+      </c>
+      <c r="I51">
+        <v>0.03958822703228799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1272088024167466</v>
+        <v>-0.118957100837956</v>
       </c>
       <c r="C53">
-        <v>0.01252074465728519</v>
+        <v>0.04661726551575421</v>
       </c>
       <c r="D53">
-        <v>0.06765913618370101</v>
+        <v>0.002924928955568625</v>
       </c>
       <c r="E53">
-        <v>-0.004210290620255907</v>
+        <v>-0.05206415583596497</v>
       </c>
       <c r="F53">
-        <v>0.06741594928268702</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05509489689387239</v>
+      </c>
+      <c r="G53">
+        <v>-0.02734840097760254</v>
+      </c>
+      <c r="H53">
+        <v>0.02610737278636876</v>
+      </c>
+      <c r="I53">
+        <v>0.02652231249140167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02558459224931067</v>
+        <v>-0.0269631327693857</v>
       </c>
       <c r="C54">
-        <v>0.01132204200367979</v>
+        <v>0.008038259138484908</v>
       </c>
       <c r="D54">
-        <v>0.03783092928630517</v>
+        <v>-0.00396013076456317</v>
       </c>
       <c r="E54">
-        <v>0.009157743849779319</v>
+        <v>-0.0294831332063254</v>
       </c>
       <c r="F54">
-        <v>-0.0411300562041621</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0378272580970227</v>
+      </c>
+      <c r="G54">
+        <v>-0.05291844813920432</v>
+      </c>
+      <c r="H54">
+        <v>0.03873682661196284</v>
+      </c>
+      <c r="I54">
+        <v>-0.002501564051041125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1040327263289821</v>
+        <v>-0.0951533518316012</v>
       </c>
       <c r="C55">
-        <v>0.01386449806316671</v>
+        <v>0.03896353125897556</v>
       </c>
       <c r="D55">
-        <v>0.03126558392048615</v>
+        <v>-0.01448817341980208</v>
       </c>
       <c r="E55">
-        <v>0.04015179689991997</v>
+        <v>-0.03787026200719805</v>
       </c>
       <c r="F55">
-        <v>0.02912586671131405</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04216447004795954</v>
+      </c>
+      <c r="G55">
+        <v>-0.04292913461608018</v>
+      </c>
+      <c r="H55">
+        <v>-0.007450348825160406</v>
+      </c>
+      <c r="I55">
+        <v>0.003405735194412046</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1648806446965077</v>
+        <v>-0.1605784378172736</v>
       </c>
       <c r="C56">
-        <v>0.06205703971992852</v>
+        <v>0.03624554251959246</v>
       </c>
       <c r="D56">
-        <v>0.06808127829903836</v>
+        <v>-0.0004027421537313952</v>
       </c>
       <c r="E56">
-        <v>0.02424870962250356</v>
+        <v>-0.0883633017642057</v>
       </c>
       <c r="F56">
-        <v>0.1054260111887654</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09728054170310384</v>
+      </c>
+      <c r="G56">
+        <v>0.008512035487269356</v>
+      </c>
+      <c r="H56">
+        <v>-0.02106363342069481</v>
+      </c>
+      <c r="I56">
+        <v>0.0296041541162138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.07142679202035547</v>
+        <v>-0.05934018424264712</v>
       </c>
       <c r="C57">
-        <v>-0.005993259696083237</v>
+        <v>0.02936222610361908</v>
       </c>
       <c r="D57">
-        <v>0.04637598854114829</v>
+        <v>0.01847431719564517</v>
       </c>
       <c r="E57">
-        <v>-0.02659561832335601</v>
+        <v>-0.003817695765495296</v>
       </c>
       <c r="F57">
-        <v>-0.06491681409350923</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06501962197613681</v>
+      </c>
+      <c r="G57">
+        <v>-0.02362957551718895</v>
+      </c>
+      <c r="H57">
+        <v>0.01957188172875641</v>
+      </c>
+      <c r="I57">
+        <v>0.03294200718021473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2038318157836752</v>
+        <v>-0.2027637077348963</v>
       </c>
       <c r="C58">
-        <v>-0.0417283767502183</v>
+        <v>0.1232467684424357</v>
       </c>
       <c r="D58">
-        <v>0.08845338349733184</v>
+        <v>0.09225473446400789</v>
       </c>
       <c r="E58">
-        <v>-0.04007790056315551</v>
+        <v>0.03738384360587155</v>
       </c>
       <c r="F58">
-        <v>-0.2344258383579992</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3709252188558328</v>
+      </c>
+      <c r="G58">
+        <v>-0.3138903532327343</v>
+      </c>
+      <c r="H58">
+        <v>-0.2684564671957676</v>
+      </c>
+      <c r="I58">
+        <v>-0.7374662324259289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.03905511437255951</v>
+        <v>-0.0638255320428369</v>
       </c>
       <c r="C59">
-        <v>0.14641419825876</v>
+        <v>-0.206276107909311</v>
       </c>
       <c r="D59">
-        <v>-0.1350306479252338</v>
+        <v>0.02899717677071861</v>
       </c>
       <c r="E59">
-        <v>-0.04064637108830405</v>
+        <v>0.0139887925683502</v>
       </c>
       <c r="F59">
-        <v>-0.04042077400009504</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.05590363764681448</v>
+      </c>
+      <c r="G59">
+        <v>0.001649253060799953</v>
+      </c>
+      <c r="H59">
+        <v>0.008391367393155583</v>
+      </c>
+      <c r="I59">
+        <v>0.007705682302466635</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1803650059351845</v>
+        <v>-0.1976003136135861</v>
       </c>
       <c r="C60">
-        <v>0.06922725006497711</v>
+        <v>-0.04950917825987035</v>
       </c>
       <c r="D60">
-        <v>-0.01604509591154072</v>
+        <v>0.05873743370570794</v>
       </c>
       <c r="E60">
-        <v>-0.08119179577317134</v>
+        <v>-0.01154635989223635</v>
       </c>
       <c r="F60">
-        <v>-0.1307618371084434</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1769766397914526</v>
+      </c>
+      <c r="G60">
+        <v>0.3511341350780036</v>
+      </c>
+      <c r="H60">
+        <v>-0.02959152405556369</v>
+      </c>
+      <c r="I60">
+        <v>0.04840297533487117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03599259521238164</v>
+        <v>-0.03780857120011385</v>
       </c>
       <c r="C61">
-        <v>-0.00543721467855763</v>
+        <v>0.03410025029445302</v>
       </c>
       <c r="D61">
-        <v>0.01958539736145562</v>
+        <v>-0.001395487660186561</v>
       </c>
       <c r="E61">
-        <v>0.004677910134043313</v>
+        <v>-0.01190038954492458</v>
       </c>
       <c r="F61">
-        <v>-0.04655224407920006</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.04121861720211722</v>
+      </c>
+      <c r="G61">
+        <v>0.0163022884843165</v>
+      </c>
+      <c r="H61">
+        <v>0.01065857608359822</v>
+      </c>
+      <c r="I61">
+        <v>0.01376504042017597</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.03415907474568915</v>
+        <v>-0.02734373096282473</v>
       </c>
       <c r="C63">
-        <v>0.0007667261503794249</v>
+        <v>0.02313411837741808</v>
       </c>
       <c r="D63">
-        <v>0.03219890878989569</v>
+        <v>0.0005685616159446908</v>
       </c>
       <c r="E63">
-        <v>-0.003442732767763272</v>
+        <v>-0.01581170143831014</v>
       </c>
       <c r="F63">
-        <v>-0.05389802645288187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03466434945831421</v>
+      </c>
+      <c r="G63">
+        <v>-0.04878513515815897</v>
+      </c>
+      <c r="H63">
+        <v>0.01112818939704562</v>
+      </c>
+      <c r="I63">
+        <v>0.0290073076463404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05511852448110972</v>
+        <v>-0.05486255059809308</v>
       </c>
       <c r="C64">
-        <v>-0.01057121544420761</v>
+        <v>0.03692099701381034</v>
       </c>
       <c r="D64">
-        <v>0.04515939158284554</v>
+        <v>-0.01110495837102456</v>
       </c>
       <c r="E64">
-        <v>0.03363327567707592</v>
+        <v>-0.01935667686921307</v>
       </c>
       <c r="F64">
-        <v>-0.04615574601968155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04291131884769579</v>
+      </c>
+      <c r="G64">
+        <v>-0.02252707842088154</v>
+      </c>
+      <c r="H64">
+        <v>0.06303613069736548</v>
+      </c>
+      <c r="I64">
+        <v>0.04622118226204748</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02990659089327869</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01223846229620841</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.004519450444277236</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.007459776223205276</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.005881762730233831</v>
+      </c>
+      <c r="G65">
+        <v>0.02499994895084068</v>
+      </c>
+      <c r="H65">
+        <v>-0.01469683492510944</v>
+      </c>
+      <c r="I65">
+        <v>0.007905896080719937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.06774630204679127</v>
+        <v>-0.06164959831358472</v>
       </c>
       <c r="C66">
-        <v>-0.00134363067850048</v>
+        <v>0.0596190602837204</v>
       </c>
       <c r="D66">
-        <v>0.06287874768842593</v>
+        <v>0.01219600484870924</v>
       </c>
       <c r="E66">
-        <v>0.004114611336888396</v>
+        <v>-0.04293225319157166</v>
       </c>
       <c r="F66">
-        <v>-0.0836884554585739</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07004895213984774</v>
+      </c>
+      <c r="G66">
+        <v>0.01111251721598225</v>
+      </c>
+      <c r="H66">
+        <v>0.008729075791162355</v>
+      </c>
+      <c r="I66">
+        <v>0.06787026988082404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.04976337726958197</v>
+        <v>-0.04835576449314286</v>
       </c>
       <c r="C67">
-        <v>0.01407377354690143</v>
+        <v>0.0006164667687599269</v>
       </c>
       <c r="D67">
-        <v>0.003765949464701435</v>
+        <v>0.001535417044043631</v>
       </c>
       <c r="E67">
-        <v>0.005989180805920581</v>
+        <v>-0.007441948937805819</v>
       </c>
       <c r="F67">
-        <v>-0.02820996651132289</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03853681466016541</v>
+      </c>
+      <c r="G67">
+        <v>0.008227774708709602</v>
+      </c>
+      <c r="H67">
+        <v>0.04203541998939309</v>
+      </c>
+      <c r="I67">
+        <v>-0.00705006447901066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.06737553438544006</v>
+        <v>-0.07345997690709964</v>
       </c>
       <c r="C68">
-        <v>0.1563823749986033</v>
+        <v>-0.2368047176375042</v>
       </c>
       <c r="D68">
-        <v>-0.1895685121521876</v>
+        <v>0.02501120461077788</v>
       </c>
       <c r="E68">
-        <v>-0.04772312408766655</v>
+        <v>0.03398192789566656</v>
       </c>
       <c r="F68">
-        <v>-0.01875826056700282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02198213508560556</v>
+      </c>
+      <c r="G68">
+        <v>-0.04401723306090177</v>
+      </c>
+      <c r="H68">
+        <v>-0.009780195438701596</v>
+      </c>
+      <c r="I68">
+        <v>-0.009801918810071517</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07453972698035484</v>
+        <v>-0.06909564358382589</v>
       </c>
       <c r="C69">
-        <v>0.01105881610851844</v>
+        <v>0.02509105068821663</v>
       </c>
       <c r="D69">
-        <v>0.03542186265951539</v>
+        <v>0.004662552477429747</v>
       </c>
       <c r="E69">
-        <v>0.001302164330660381</v>
+        <v>-0.03088137155882475</v>
       </c>
       <c r="F69">
-        <v>0.00432757499090828</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.003033634115583348</v>
+      </c>
+      <c r="G69">
+        <v>-0.04230940387785254</v>
+      </c>
+      <c r="H69">
+        <v>0.02696657864203925</v>
+      </c>
+      <c r="I69">
+        <v>0.01884489103599438</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.06375872642775807</v>
+        <v>-0.07006401659682032</v>
       </c>
       <c r="C71">
-        <v>0.1933325687749463</v>
+        <v>-0.2641482737845291</v>
       </c>
       <c r="D71">
-        <v>-0.2245066109600923</v>
+        <v>0.03110035723879459</v>
       </c>
       <c r="E71">
-        <v>-0.09262344023776131</v>
+        <v>0.04667968211213604</v>
       </c>
       <c r="F71">
-        <v>-0.05599534898291738</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04705633789508949</v>
+      </c>
+      <c r="G71">
+        <v>-0.03844710193191322</v>
+      </c>
+      <c r="H71">
+        <v>0.01179947697437175</v>
+      </c>
+      <c r="I71">
+        <v>0.01980936258933115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1343935428926782</v>
+        <v>-0.1367474677150886</v>
       </c>
       <c r="C72">
-        <v>0.05201632623231881</v>
+        <v>0.04136060400430843</v>
       </c>
       <c r="D72">
-        <v>0.04501353495402651</v>
+        <v>0.01582417539249137</v>
       </c>
       <c r="E72">
-        <v>-0.001482999657245558</v>
+        <v>-0.07672962291604665</v>
       </c>
       <c r="F72">
-        <v>-0.0797502199810259</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.100783977331012</v>
+      </c>
+      <c r="G72">
+        <v>0.1100608871611482</v>
+      </c>
+      <c r="H72">
+        <v>-0.01647944937902194</v>
+      </c>
+      <c r="I72">
+        <v>-0.1406625674372398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2827386516299344</v>
+        <v>-0.2825528736230687</v>
       </c>
       <c r="C73">
-        <v>0.09883563066852061</v>
+        <v>-0.06532483404527681</v>
       </c>
       <c r="D73">
-        <v>-0.07965613731619742</v>
+        <v>0.09829822792431632</v>
       </c>
       <c r="E73">
-        <v>-0.1126938336489207</v>
+        <v>0.03371387899598969</v>
       </c>
       <c r="F73">
-        <v>-0.2309026696091459</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2578361713379865</v>
+      </c>
+      <c r="G73">
+        <v>0.5269998884971226</v>
+      </c>
+      <c r="H73">
+        <v>-0.1053287154923132</v>
+      </c>
+      <c r="I73">
+        <v>0.01963553710481671</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1499378532246722</v>
+        <v>-0.145493251883371</v>
       </c>
       <c r="C74">
-        <v>0.01242100776118299</v>
+        <v>0.04771772328692211</v>
       </c>
       <c r="D74">
-        <v>0.04627233077572127</v>
+        <v>0.007007025939736914</v>
       </c>
       <c r="E74">
-        <v>0.0007635844383552191</v>
+        <v>-0.0500057712958355</v>
       </c>
       <c r="F74">
-        <v>0.05407749496081575</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07475029764071967</v>
+      </c>
+      <c r="G74">
+        <v>0.006749815261435554</v>
+      </c>
+      <c r="H74">
+        <v>-0.01840610129453165</v>
+      </c>
+      <c r="I74">
+        <v>0.07588374358525761</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2275715498865167</v>
+        <v>-0.2499309013090607</v>
       </c>
       <c r="C75">
-        <v>0.0523589283988633</v>
+        <v>0.05262895942085979</v>
       </c>
       <c r="D75">
-        <v>0.09867348854755796</v>
+        <v>0.02569453826439863</v>
       </c>
       <c r="E75">
-        <v>-0.008203077553971693</v>
+        <v>-0.1189276100405108</v>
       </c>
       <c r="F75">
-        <v>0.1431383898974224</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1461504498152892</v>
+      </c>
+      <c r="G75">
+        <v>-0.01109917828709544</v>
+      </c>
+      <c r="H75">
+        <v>0.009735979924337683</v>
+      </c>
+      <c r="I75">
+        <v>0.01560492727370027</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2599695705926949</v>
+        <v>-0.260695243944524</v>
       </c>
       <c r="C76">
-        <v>0.08034539403283526</v>
+        <v>0.04264206249184326</v>
       </c>
       <c r="D76">
-        <v>0.07646150565372629</v>
+        <v>-0.01401427736280377</v>
       </c>
       <c r="E76">
-        <v>0.05813113251563792</v>
+        <v>-0.1412874514647796</v>
       </c>
       <c r="F76">
-        <v>0.1398033275317339</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1929954478827365</v>
+      </c>
+      <c r="G76">
+        <v>-0.02180327711679501</v>
+      </c>
+      <c r="H76">
+        <v>-0.0712129710677768</v>
+      </c>
+      <c r="I76">
+        <v>0.01973439575471988</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1476402943831764</v>
+        <v>-0.1114035822846846</v>
       </c>
       <c r="C77">
-        <v>-0.08012291269308004</v>
+        <v>0.07356255326825183</v>
       </c>
       <c r="D77">
-        <v>0.02189695836008572</v>
+        <v>0.007016539659551932</v>
       </c>
       <c r="E77">
-        <v>-0.02176169797731279</v>
+        <v>0.04950605862862323</v>
       </c>
       <c r="F77">
-        <v>-0.1891102261101909</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1643963940871078</v>
+      </c>
+      <c r="G77">
+        <v>-0.2352118482040501</v>
+      </c>
+      <c r="H77">
+        <v>-8.303321058171343e-05</v>
+      </c>
+      <c r="I77">
+        <v>0.2330411714722334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08788327152137669</v>
+        <v>-0.06618782967585984</v>
       </c>
       <c r="C78">
-        <v>-0.05028503520020684</v>
+        <v>0.07104829489977058</v>
       </c>
       <c r="D78">
-        <v>0.0613315908068903</v>
+        <v>-0.003818886542731379</v>
       </c>
       <c r="E78">
-        <v>0.01107701374642208</v>
+        <v>-0.01168519867407469</v>
       </c>
       <c r="F78">
-        <v>-0.05054306910602122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07592539554444762</v>
+      </c>
+      <c r="G78">
+        <v>-0.02214002392305297</v>
+      </c>
+      <c r="H78">
+        <v>0.02696307617822635</v>
+      </c>
+      <c r="I78">
+        <v>0.03856532926539896</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1176273229026486</v>
+        <v>-0.1407219941285013</v>
       </c>
       <c r="C80">
-        <v>-0.07589934147029292</v>
+        <v>-0.07714836605618243</v>
       </c>
       <c r="D80">
-        <v>-0.2791447270522336</v>
+        <v>-0.9725062752463021</v>
       </c>
       <c r="E80">
-        <v>0.92445244094733</v>
+        <v>0.03719443975738754</v>
       </c>
       <c r="F80">
-        <v>-0.06710813840288843</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.06972296736324525</v>
+      </c>
+      <c r="G80">
+        <v>0.05721169304892959</v>
+      </c>
+      <c r="H80">
+        <v>0.03362819586385441</v>
+      </c>
+      <c r="I80">
+        <v>-0.08418986049670786</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1617741081098453</v>
+        <v>-0.1836139823153344</v>
       </c>
       <c r="C81">
-        <v>0.04407594197262717</v>
+        <v>0.03281950611109088</v>
       </c>
       <c r="D81">
-        <v>0.06096309428753136</v>
+        <v>0.002392202370536844</v>
       </c>
       <c r="E81">
-        <v>0.0201874700221754</v>
+        <v>-0.09941263509692325</v>
       </c>
       <c r="F81">
-        <v>0.163125902031826</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1491259039885518</v>
+      </c>
+      <c r="G81">
+        <v>-0.03718278762378754</v>
+      </c>
+      <c r="H81">
+        <v>-0.02873826893803173</v>
+      </c>
+      <c r="I81">
+        <v>-0.004083686593389404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.07052187529180275</v>
+        <v>-0.05754671528336325</v>
       </c>
       <c r="C83">
-        <v>-0.07168732432754137</v>
+        <v>0.05140370747749654</v>
       </c>
       <c r="D83">
-        <v>0.04258453746809272</v>
+        <v>0.01026666426228176</v>
       </c>
       <c r="E83">
-        <v>-0.01930970170893069</v>
+        <v>0.02409742659485425</v>
       </c>
       <c r="F83">
-        <v>-0.025358333925469</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04455225020474308</v>
+      </c>
+      <c r="G83">
+        <v>-0.03252238493173177</v>
+      </c>
+      <c r="H83">
+        <v>0.05414530691648181</v>
+      </c>
+      <c r="I83">
+        <v>0.0469003316477223</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.225833733998083</v>
+        <v>-0.2417414518688021</v>
       </c>
       <c r="C85">
-        <v>0.0181957312871294</v>
+        <v>0.0763504484434238</v>
       </c>
       <c r="D85">
-        <v>0.09300538079386564</v>
+        <v>0.005498550922787061</v>
       </c>
       <c r="E85">
-        <v>0.05158263037542598</v>
+        <v>-0.1101734589686885</v>
       </c>
       <c r="F85">
-        <v>0.1699118691563756</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1940478543287211</v>
+      </c>
+      <c r="G85">
+        <v>-0.04541783016863768</v>
+      </c>
+      <c r="H85">
+        <v>-0.01785630244781084</v>
+      </c>
+      <c r="I85">
+        <v>0.02307399930720285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.03122861418925945</v>
+        <v>-0.02384742078732183</v>
       </c>
       <c r="C86">
-        <v>-0.03048857938650463</v>
+        <v>0.05213813930926349</v>
       </c>
       <c r="D86">
-        <v>0.05586925478830645</v>
+        <v>0.001816951162804734</v>
       </c>
       <c r="E86">
-        <v>-0.004998793526088206</v>
+        <v>-0.0107172462012786</v>
       </c>
       <c r="F86">
-        <v>-0.08571890827620138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08460395427606922</v>
+      </c>
+      <c r="G86">
+        <v>-0.0569129826921225</v>
+      </c>
+      <c r="H86">
+        <v>0.01541223548067467</v>
+      </c>
+      <c r="I86">
+        <v>0.06376738780721382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.0190721426835245</v>
+        <v>-0.02516556161640244</v>
       </c>
       <c r="C87">
-        <v>0.02614993365031042</v>
+        <v>-0.008539211739993729</v>
       </c>
       <c r="D87">
-        <v>-0.03228676288325395</v>
+        <v>-0.001910472585712643</v>
       </c>
       <c r="E87">
-        <v>-0.01128171994404432</v>
+        <v>0.004188783222232441</v>
       </c>
       <c r="F87">
-        <v>-0.09853263859316116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1082170740186657</v>
+      </c>
+      <c r="G87">
+        <v>-0.01704563932552608</v>
+      </c>
+      <c r="H87">
+        <v>-0.01302641965951092</v>
+      </c>
+      <c r="I87">
+        <v>0.05441662699411889</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02808927571060928</v>
+        <v>-0.03704662554952486</v>
       </c>
       <c r="C88">
-        <v>-0.005050836950158481</v>
+        <v>0.01036756176006112</v>
       </c>
       <c r="D88">
-        <v>0.02808673499933673</v>
+        <v>-0.003368002433849012</v>
       </c>
       <c r="E88">
-        <v>0.02507752560328554</v>
+        <v>-0.01376137201931329</v>
       </c>
       <c r="F88">
-        <v>0.005833253829579279</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.005257586547577436</v>
+      </c>
+      <c r="G88">
+        <v>-0.01317801339529494</v>
+      </c>
+      <c r="H88">
+        <v>0.05264666286994223</v>
+      </c>
+      <c r="I88">
+        <v>0.006893074984307475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.09510561483292808</v>
+        <v>-0.1176615024533905</v>
       </c>
       <c r="C89">
-        <v>0.2095645980091751</v>
+        <v>-0.3776907317007879</v>
       </c>
       <c r="D89">
-        <v>-0.2927051639192098</v>
+        <v>0.06325506755621003</v>
       </c>
       <c r="E89">
-        <v>-0.1118523211898857</v>
+        <v>0.0632484163647319</v>
       </c>
       <c r="F89">
-        <v>-0.01998174178000279</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02598019725533967</v>
+      </c>
+      <c r="G89">
+        <v>-0.1019494063639783</v>
+      </c>
+      <c r="H89">
+        <v>0.03457953233850439</v>
+      </c>
+      <c r="I89">
+        <v>0.0441860126800944</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.07244602270103005</v>
+        <v>-0.07853977827405459</v>
       </c>
       <c r="C90">
-        <v>0.1944224579857887</v>
+        <v>-0.3372698783104729</v>
       </c>
       <c r="D90">
-        <v>-0.2694200003631867</v>
+        <v>0.03584024981001686</v>
       </c>
       <c r="E90">
-        <v>-0.04618236493021903</v>
+        <v>0.05785693110080931</v>
       </c>
       <c r="F90">
-        <v>-0.03648753570664625</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.00603354817035832</v>
+      </c>
+      <c r="G90">
+        <v>-0.08432272851506957</v>
+      </c>
+      <c r="H90">
+        <v>0.01588376062924579</v>
+      </c>
+      <c r="I90">
+        <v>0.009351532991052158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2830800307843083</v>
+        <v>-0.2870457094802171</v>
       </c>
       <c r="C91">
-        <v>0.01526993790489766</v>
+        <v>0.09744929958193625</v>
       </c>
       <c r="D91">
-        <v>0.1223002399479697</v>
+        <v>0.009044907939773207</v>
       </c>
       <c r="E91">
-        <v>0.04898440270519819</v>
+        <v>-0.1136356188453021</v>
       </c>
       <c r="F91">
-        <v>0.2606074500655449</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2662556482197036</v>
+      </c>
+      <c r="G91">
+        <v>-0.04365346420992775</v>
+      </c>
+      <c r="H91">
+        <v>-0.05793861466716967</v>
+      </c>
+      <c r="I91">
+        <v>0.02282576519636968</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.1021758849421162</v>
+        <v>-0.1588356802667581</v>
       </c>
       <c r="C92">
-        <v>0.1663770081373074</v>
+        <v>-0.3548486545970909</v>
       </c>
       <c r="D92">
-        <v>-0.3005414332227157</v>
+        <v>0.01977910117563206</v>
       </c>
       <c r="E92">
-        <v>-0.02566227190429538</v>
+        <v>0.08489324891924559</v>
       </c>
       <c r="F92">
-        <v>0.04993792007366964</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1005933887504511</v>
+      </c>
+      <c r="G92">
+        <v>-0.2685810906873922</v>
+      </c>
+      <c r="H92">
+        <v>0.04587210536731797</v>
+      </c>
+      <c r="I92">
+        <v>-0.04057114597246268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.07161047101497005</v>
+        <v>-0.09889732937119375</v>
       </c>
       <c r="C93">
-        <v>0.2252678161919025</v>
+        <v>-0.396695370295327</v>
       </c>
       <c r="D93">
-        <v>-0.3171870885965937</v>
+        <v>0.05091898370376625</v>
       </c>
       <c r="E93">
-        <v>-0.06318275793435049</v>
+        <v>0.09163255833763091</v>
       </c>
       <c r="F93">
-        <v>0.03439688936016787</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.02607124982761769</v>
+      </c>
+      <c r="G93">
+        <v>-0.03097278569449261</v>
+      </c>
+      <c r="H93">
+        <v>0.04742373670085871</v>
+      </c>
+      <c r="I93">
+        <v>-0.03303922555929226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2813285101287429</v>
+        <v>-0.3056039116305161</v>
       </c>
       <c r="C94">
-        <v>0.07543952968751072</v>
+        <v>0.01527997017906434</v>
       </c>
       <c r="D94">
-        <v>0.01138627164316651</v>
+        <v>0.03350961464520709</v>
       </c>
       <c r="E94">
-        <v>0.01249633623963922</v>
+        <v>-0.1243197830447706</v>
       </c>
       <c r="F94">
-        <v>0.2262015728319799</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2710173385216884</v>
+      </c>
+      <c r="G94">
+        <v>-0.09350325271984579</v>
+      </c>
+      <c r="H94">
+        <v>-0.2023908359493129</v>
+      </c>
+      <c r="I94">
+        <v>0.02472532514351789</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1602650748921177</v>
+        <v>-0.1304012761629357</v>
       </c>
       <c r="C95">
-        <v>-0.04095381091310593</v>
+        <v>0.0705389007838725</v>
       </c>
       <c r="D95">
-        <v>0.1024340403465524</v>
+        <v>0.08064285908566732</v>
       </c>
       <c r="E95">
-        <v>-0.05909850571966918</v>
+        <v>-0.03103235657020564</v>
       </c>
       <c r="F95">
-        <v>0.4586588278047121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.07839190817876678</v>
+      </c>
+      <c r="G95">
+        <v>0.08633519471177219</v>
+      </c>
+      <c r="H95">
+        <v>0.8862534561785133</v>
+      </c>
+      <c r="I95">
+        <v>-0.3138808836818262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2073826317384873</v>
+        <v>-0.2159229627627902</v>
       </c>
       <c r="C98">
-        <v>0.05656413525286592</v>
+        <v>-0.05429633671932763</v>
       </c>
       <c r="D98">
-        <v>-0.04649923768972378</v>
+        <v>0.06943526026184857</v>
       </c>
       <c r="E98">
-        <v>-0.08849716278489146</v>
+        <v>0.02447285699585822</v>
       </c>
       <c r="F98">
-        <v>-0.05091164872017287</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1656613033109789</v>
+      </c>
+      <c r="G98">
+        <v>0.3841259768151264</v>
+      </c>
+      <c r="H98">
+        <v>-0.04946115162252467</v>
+      </c>
+      <c r="I98">
+        <v>-0.01958574217637749</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.008221577689356893</v>
+        <v>-0.01611030365866496</v>
       </c>
       <c r="C101">
-        <v>0.004324925818063842</v>
+        <v>0.03281704636637055</v>
       </c>
       <c r="D101">
-        <v>0.06992326121103894</v>
+        <v>-0.004814292880756512</v>
       </c>
       <c r="E101">
-        <v>0.02213609638255637</v>
+        <v>-0.03594164565105101</v>
       </c>
       <c r="F101">
-        <v>-0.03549151914409556</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.0778303776946062</v>
+      </c>
+      <c r="G101">
+        <v>-0.1022228812662901</v>
+      </c>
+      <c r="H101">
+        <v>-0.004798179781591043</v>
+      </c>
+      <c r="I101">
+        <v>-0.1270302942009564</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09565264929904803</v>
+        <v>-0.1150688194938296</v>
       </c>
       <c r="C102">
-        <v>0.01337778803611701</v>
+        <v>0.03780751413604806</v>
       </c>
       <c r="D102">
-        <v>0.06252987731913254</v>
+        <v>-0.006040724399483068</v>
       </c>
       <c r="E102">
-        <v>0.03976898812614443</v>
+        <v>-0.05803641174067239</v>
       </c>
       <c r="F102">
-        <v>0.08692849193446407</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1093104268857126</v>
+      </c>
+      <c r="G102">
+        <v>-0.01974037624663011</v>
+      </c>
+      <c r="H102">
+        <v>-0.005864103278933147</v>
+      </c>
+      <c r="I102">
+        <v>0.02776168239004361</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02178463397649848</v>
+        <v>-0.0281881258075355</v>
       </c>
       <c r="C103">
-        <v>0.006802551523248517</v>
+        <v>0.01388795331418977</v>
       </c>
       <c r="D103">
-        <v>0.02385290817690122</v>
+        <v>-0.00953742662273763</v>
       </c>
       <c r="E103">
-        <v>0.01107071276173065</v>
+        <v>-0.0205478156415868</v>
       </c>
       <c r="F103">
-        <v>0.02376471461500769</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01980756253949495</v>
+      </c>
+      <c r="G103">
+        <v>-0.01818205330035709</v>
+      </c>
+      <c r="H103">
+        <v>0.007663363697944006</v>
+      </c>
+      <c r="I103">
+        <v>0.0155295274166849</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
